--- a/matlab/samplelist.xlsx
+++ b/matlab/samplelist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D92E52AC-D2EF-46E1-B2A9-33513E32F687}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDCAF43-B930-49C9-AE44-67662F90B25C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1173,11 +1173,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/matlab/samplelist.xlsx
+++ b/matlab/samplelist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDCAF43-B930-49C9-AE44-67662F90B25C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6E5C33-BF83-427D-B1AE-40E5FCA6E1B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1180,6 +1180,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
